--- a/data/modeling_data/average_map_mat.xlsx
+++ b/data/modeling_data/average_map_mat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morga\GitHub\Transpiration-ML-Project\Transpiration-ML-Project\data\modeling_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3EF3F2A4-60F1-4583-918F-DB202A7F54A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AEB9F22-0559-4417-A822-A9CE568278E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="average_map_mat" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="49" uniqueCount="25">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="30">
   <si>
     <t>Cluster</t>
   </si>
@@ -109,16 +109,31 @@
     <t>Neural Network Results</t>
   </si>
   <si>
-    <t>Excluding R2 &lt; 0.6:</t>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>VPD</t>
+  </si>
+  <si>
+    <t>PPFD</t>
+  </si>
+  <si>
+    <t>SWC</t>
+  </si>
+  <si>
+    <t>Mean values</t>
+  </si>
+  <si>
+    <t>Sap flux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -597,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -605,16 +620,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -708,21 +726,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MAP vs SWC (excluding</a:t>
+              <a:t>MAP vs SWC</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
-              <a:t> R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="30%"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
-              <a:t> &lt; 0.6)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -797,6 +802,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{B6438FD5-A36C-4F6A-B603-813266A3BFAC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -809,6 +819,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -824,6 +835,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{76E0921F-7B1B-4599-AC56-5F6BFA418F96}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -836,6 +852,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -851,6 +868,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{89A53BA9-7D91-4C03-94B8-7DB6A61AFB46}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -863,6 +885,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -878,7 +901,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F1FD76D-6CE6-4258-A941-9212F191090D}" type="CELLRANGE">
+                    <a:fld id="{FB82103F-D3C9-4A2E-9339-485BA590594C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -911,7 +934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C98F1E17-05B0-42AD-BCCF-A56CC440C464}" type="CELLRANGE">
+                    <a:fld id="{DFB8532A-B260-49E0-AAC5-A65898A912D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -944,7 +967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4BCCFF6-9C79-4481-9C72-F357BB25921B}" type="CELLRANGE">
+                    <a:fld id="{CDB9DB9E-ED9D-4DA9-BD35-683A4F765710}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -977,7 +1000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A381F2B-ACC2-4481-88B2-04413F27FD16}" type="CELLRANGE">
+                    <a:fld id="{7B480A74-D4C4-4567-A458-22C26AB9BC2B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1010,7 +1033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC9423E0-7BE2-4358-987B-63BA6876A9BD}" type="CELLRANGE">
+                    <a:fld id="{C51DBFB5-3F3E-49E1-A948-86E6C98265C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1171,6 +1194,15 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2980.9457157042898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1002.35964187438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>868.49802283979704</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>640.32278274827104</c:v>
                 </c:pt>
@@ -1195,6 +1227,15 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.3992</c:v>
                 </c:pt>
@@ -1220,6 +1261,15 @@
                 <c15:f>average_map_mat!$A$21:$A$29</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
                   <c:pt idx="3">
                     <c:v>Woodland/Shrubland</c:v>
                   </c:pt>
@@ -1465,17 +1515,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MAT vs Rn (excluding R</a:t>
+              <a:t>MAT vs Rn</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="30%"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
-              <a:t> &lt; 0.6)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1550,6 +1591,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{596E9D28-1CEB-4911-A096-533A3CC08538}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1562,6 +1608,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1577,6 +1624,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{6870C997-E385-4605-BB5F-85635655D78A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1589,6 +1641,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1604,6 +1657,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{440366E4-6D0A-4117-AF2A-6191B965FA91}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1616,6 +1674,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1631,7 +1690,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58AD6382-CCB0-4B0A-B4EE-16DE0F9DB209}" type="CELLRANGE">
+                    <a:fld id="{E6EEDBFC-FB4D-4EEB-BD39-E9F0D91FA9E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1664,7 +1723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68F05B09-0A22-427F-A490-7F179E7CB8C7}" type="CELLRANGE">
+                    <a:fld id="{59FC950E-0B5B-4364-83A2-A68060279BF7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1697,7 +1756,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8096D4E0-08CF-4013-861A-6C22A6B35FE8}" type="CELLRANGE">
+                    <a:fld id="{76E933C7-8797-4419-8F32-FE10AAD023F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1730,7 +1789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6C19D2F-7444-429E-BDBF-7121133D49CE}" type="CELLRANGE">
+                    <a:fld id="{3B300C7E-B4DD-4308-9E24-8EA7EABB9641}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1763,7 +1822,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B078F2B5-0437-4CFE-8261-00D7A6F53110}" type="CELLRANGE">
+                    <a:fld id="{B02018A3-F465-4331-9BD5-92D9BD7E5468}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1910,6 +1969,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.5228032056114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5293573551627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.958901834605699</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>9.3213291623820407</c:v>
                 </c:pt>
@@ -1934,6 +2002,15 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.61409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75929999999999997</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2215</c:v>
                 </c:pt>
@@ -1959,6 +2036,15 @@
                 <c15:f>average_map_mat!$A$21:$A$29</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
                   <c:pt idx="3">
                     <c:v>Woodland/Shrubland</c:v>
                   </c:pt>
@@ -2204,15 +2290,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>MAT vs Ta (excluding R</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="30%"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> &lt; 0.6)</a:t>
+              <a:t>MAT vs Ta</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2288,6 +2366,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{131898AA-55C3-4FB3-83AD-AD61918368AC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -2300,6 +2383,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -2315,6 +2399,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{DF97609F-14DB-4DA0-9897-A6D6FA41900C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -2327,6 +2416,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -2342,6 +2432,11 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{546351E5-0608-473A-9A16-3E4E11E0FB55}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -2354,6 +2449,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -2369,7 +2465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E0272A2-6CF2-4030-BE35-6D9BB48AF482}" type="CELLRANGE">
+                    <a:fld id="{E27B0D7E-EAC0-4656-BD91-39F37BDCEF4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2402,7 +2498,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B6828CD-AEE9-4713-A82E-AC2D50256454}" type="CELLRANGE">
+                    <a:fld id="{6628E91C-D8B0-4C1C-918B-D287434FED0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2435,7 +2531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DCCD184-E665-4287-A95B-7FEC3160E217}" type="CELLRANGE">
+                    <a:fld id="{02419676-5B85-4C51-91BA-5661AF3D204F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2468,7 +2564,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6148E25-1EFD-432E-8FE1-059669096510}" type="CELLRANGE">
+                    <a:fld id="{64A2F9C6-A7A7-4968-9DB0-9CA892B8BDBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2501,7 +2597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FABF9FD-203E-4D53-9293-6E2F4AA51DC1}" type="CELLRANGE">
+                    <a:fld id="{67325F6B-86ED-46C5-A13C-ABABCBCC6864}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2661,6 +2757,15 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>25.5228032056114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.5293573551627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.958901834605699</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>9.3213291623820407</c:v>
                 </c:pt>
@@ -2685,6 +2790,15 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.253</c:v>
                 </c:pt>
@@ -2710,6 +2824,15 @@
                 <c15:f>average_map_mat!$A$21:$A$29</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
                   <c:pt idx="3">
                     <c:v>Woodland/Shrubland</c:v>
                   </c:pt>
@@ -2920,6 +3043,2271 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average SWC vs feature importance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average SWC vs SWC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F1BC0160-18BD-4AF4-BAAF-D2CD7571FE99}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B371DBA8-154A-4B8C-A954-21C44636D502}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{13DC18DB-D50E-4CE0-92CB-92F7F408507B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AFA2BE59-B642-459D-9458-8BCF9C0430CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AF8DA315-05C6-4828-88AD-FE4A780D137E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average_map_mat!$R$24:$R$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average_map_mat!$G$24:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>average_map_mat!$A$24:$A$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>Woodland/Shrubland</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tropical rain forest</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tropical forest savanna</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Boreal forest</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1CC-465E-8708-9485F2424E9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="754357583"/>
+        <c:axId val="754357999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="754357583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754357999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="754357999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="754357583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Ta vs feature</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> importance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{475DBA5A-6584-483E-BD8A-1E711759118D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5B06-4C93-86EC-E242252326DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{60B7F328-62B8-47AA-9C45-0BD118A85A2F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5B06-4C93-86EC-E242252326DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD050A1C-42BA-438C-B1F3-E7241371052E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5B06-4C93-86EC-E242252326DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DE24830E-04B9-485A-AE82-6E4355A6CAFA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5B06-4C93-86EC-E242252326DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C49874C-E452-4277-A723-999E0EF75EB8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5B06-4C93-86EC-E242252326DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average_map_mat!$O$24:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average_map_mat!$D$24:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0699999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>average_map_mat!$N$24:$N$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>Woodland/Shrubland</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tropical rain forest</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tropical forest savanna</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Boreal forest</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5B06-4C93-86EC-E242252326DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="766032543"/>
+        <c:axId val="766030047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="766032543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766030047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="766030047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="766032543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average VPD vs feature importance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E5E6F773-0619-43DE-A9BB-AE361ACE22E8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5B7EED68-F0BD-4F11-9785-9D2DD4548FD6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{339F1E5C-5A68-4B26-8F42-10FE73B64361}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{900FF5AB-7A66-40EF-9236-EC1FCD68751C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{21E6C001-0109-4DC9-943B-0DC2B7CE56BE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average_map_mat!$P$24:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average_map_mat!$E$24:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>average_map_mat!$N$24:$N$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>Woodland/Shrubland</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Tropical rain forest</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Tropical forest savanna</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Boreal forest</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2114-4179-A14D-734C445F9B17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="818334015"/>
+        <c:axId val="818334847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="818334015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818334847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="818334847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818334015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average PPFD vs feature importance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average_map_mat!$Q$21:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>359.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>264.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>378.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>359.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>369.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average_map_mat!$F$21:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.61409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4607-43E0-874B-DAC1A256C6FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="825194863"/>
+        <c:axId val="825188623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="825194863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825188623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="825188623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825194863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3040,6 +5428,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
@@ -4588,20 +7136,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4629,15 +9241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4664,16 +9276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4693,6 +9305,150 @@
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
           <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB63EEB-D276-44C5-8927-44E0D6CBE9FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B8F20F-5A93-4BEC-ACC4-9647824F020D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D746BFF1-81A9-4CC6-8F5C-743C33A61B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E677548F-9710-48D3-B100-BEFF5AA102AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4997,10 +9753,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5011,26 +9769,35 @@
     <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5070,8 +9837,24 @@
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -5111,8 +9894,26 @@
       <c r="M3" s="3">
         <v>0.37204911927819001</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>393.3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S3" s="2">
+        <v>470.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5152,8 +9953,26 @@
       <c r="M4" s="3">
         <v>0.82205114305127502</v>
       </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>359.5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="2">
+        <v>4262.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -5193,8 +10012,26 @@
       <c r="M5" s="3">
         <v>0.67230729716436399</v>
       </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>264.5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2847.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -5234,8 +10071,26 @@
       <c r="M6" s="3">
         <v>0.96240719263042995</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>378.3</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S6" s="2">
+        <v>6886.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5275,8 +10130,26 @@
       <c r="M7" s="3">
         <v>0.64469191599431297</v>
       </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>375.8</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="S7" s="2">
+        <v>504.1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -5316,8 +10189,26 @@
       <c r="M8" s="3">
         <v>0.52467755813134198</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1714.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -5357,8 +10248,26 @@
       <c r="M9" s="3">
         <v>0.82526687900521201</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>359.5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4262.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -5398,8 +10307,26 @@
       <c r="M10" s="3">
         <v>0.87621495534438099</v>
       </c>
+      <c r="N10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>539</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S10" s="2">
+        <v>398.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -5439,8 +10366,26 @@
       <c r="M11" s="3">
         <v>0.37228964752212901</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>439.8</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="S11" s="2">
+        <v>917.3</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -5480,8 +10425,26 @@
       <c r="M12" s="3">
         <v>0.830802051344674</v>
       </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>369.1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S12" s="2">
+        <v>789.2</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5521,8 +10484,26 @@
       <c r="M13" s="3">
         <v>0.77408126569631697</v>
       </c>
+      <c r="N13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>451.2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>229.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -5562,8 +10543,26 @@
       <c r="M14" s="3">
         <v>0.70764696680360795</v>
       </c>
+      <c r="N14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>399.9</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1690.9</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -5603,29 +10602,53 @@
       <c r="M15" s="3">
         <v>0.36197870523089198</v>
       </c>
+      <c r="N15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="2">
+        <v>14</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>369.5</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S15" s="2">
+        <v>856.9</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5665,53 +10688,203 @@
       <c r="M20" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2980.9457157042898</v>
+      </c>
+      <c r="C21" s="4">
+        <v>25.5228032056114</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.83498642599999995</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.248363477824359</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.27326080683067999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.29742693875828502</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.18094877658667399</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0.82205114305127502</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>359.5</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S21" s="2">
+        <v>4262.7</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1002.35964187438</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10.5293573551627</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.4859</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.75351196899999995</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.29319926831855098</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.28980607453088703</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.29045117515903102</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.12654348199152801</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0.67230729716436399</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2">
+        <v>15.8</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>264.5</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="S22" s="2">
+        <v>2847.3</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>868.49802283979704</v>
+      </c>
+      <c r="C23" s="4">
+        <v>13.958901834605699</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.96538919899999998</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6.5536621429715294E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.36456953882445098</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.55803488852369498</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1.18589512221385E-2</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.96240719263042995</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>378.3</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="S23" s="2">
+        <v>6886.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -5751,8 +10924,26 @@
       <c r="M24" s="3">
         <v>0.64469191599431297</v>
       </c>
+      <c r="N24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>375.8</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="S24" s="2">
+        <v>504.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -5792,8 +10983,26 @@
       <c r="M25" s="3">
         <v>0.82526687900521201</v>
       </c>
+      <c r="N25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>359.5</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S25" s="2">
+        <v>4262.7</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -5833,8 +11042,26 @@
       <c r="M26" s="3">
         <v>0.87621495534438099</v>
       </c>
+      <c r="N26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>539</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="S26" s="2">
+        <v>398.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -5874,8 +11101,26 @@
       <c r="M27" s="3">
         <v>0.830802051344674</v>
       </c>
+      <c r="N27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>369.1</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="S27" s="2">
+        <v>789.2</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -5915,8 +11160,26 @@
       <c r="M28" s="3">
         <v>0.77408126569631697</v>
       </c>
+      <c r="N28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>451.2</v>
+      </c>
+      <c r="R28" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S28" s="2">
+        <v>229.7</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -5931,7 +11194,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -5944,11 +11207,12 @@
       <c r="M30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="I19:M19"/>
+    <mergeCell ref="O1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data/modeling_data/average_map_mat.xlsx
+++ b/data/modeling_data/average_map_mat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morga\GitHub\Transpiration-ML-Project\Transpiration-ML-Project\data\modeling_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9AEB9F22-0559-4417-A822-A9CE568278E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2322EE34-B149-4653-B035-3DAA82F77EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="84" uniqueCount="30">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="90" uniqueCount="31">
   <si>
     <t>Cluster</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Sap flux</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,62 +710,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MAP vs SWC</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -802,7 +752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6438FD5-A36C-4F6A-B603-813266A3BFAC}" type="CELLRANGE">
+                    <a:fld id="{EC364EF9-741D-4F9B-A3F0-414418C3997F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -835,7 +785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76E0921F-7B1B-4599-AC56-5F6BFA418F96}" type="CELLRANGE">
+                    <a:fld id="{D3E15AAD-7939-47E7-84AE-ABB98A888988}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -868,7 +818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89A53BA9-7D91-4C03-94B8-7DB6A61AFB46}" type="CELLRANGE">
+                    <a:fld id="{36DF14B2-8FD5-4941-A987-D9F2507985B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -896,12 +846,50 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.2759167449254054E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB82103F-D3C9-4A2E-9339-485BA590594C}" type="CELLRANGE">
+                    <a:fld id="{B601F559-BD24-4454-8E1C-658720C983DF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{89D86B73-456D-44FC-B05D-9492920AE8A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -923,18 +911,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                  <c16:uniqueId val="{00000009-1D15-4AAE-A2FA-DF36B13DBE03}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFB8532A-B260-49E0-AAC5-A65898A912D7}" type="CELLRANGE">
+                    <a:fld id="{CE835A46-870D-49BB-884D-BFBCE7116963}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -956,18 +944,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                  <c16:uniqueId val="{0000000A-1D15-4AAE-A2FA-DF36B13DBE03}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDB9DB9E-ED9D-4DA9-BD35-683A4F765710}" type="CELLRANGE">
+                    <a:fld id="{97776885-0B80-43B9-ADA7-54C6B3AA1EFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -989,18 +977,94 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                  <c16:uniqueId val="{0000000B-1D15-4AAE-A2FA-DF36B13DBE03}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.685211578498201E-2"/>
+                  <c:y val="-1.2759167449254111E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B480A74-D4C4-4567-A458-22C26AB9BC2B}" type="CELLRANGE">
+                    <a:fld id="{93C28BCF-A524-4908-927A-37F110F72483}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9521714910408804E-3"/>
+                  <c:y val="2.8708126760821621E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA8C70D0-6B16-4E08-BCF9-5C1140ED511B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1CA34CBF-F612-4347-B34D-ADBE5EE73101}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1022,67 +1086,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-1D15-4AAE-A2FA-DF36B13DBE03}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C51DBFB5-3F3E-49E1-A948-86E6C98265C3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-1D15-4AAE-A2FA-DF36B13DBE03}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-1D15-4AAE-A2FA-DF36B13DBE03}"/>
+                  <c16:uniqueId val="{00000002-DC5C-42B3-B9E1-773023C4CC11}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1153,11 +1157,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0472277935112895E-2"/>
+                  <c:y val="-5.696918033149221E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1190,18 +1199,18 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$B$21:$B$29</c:f>
+              <c:f>average_map_mat!$B$21:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>792.29203499378696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>868.49802283979704</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2980.9457157042898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1002.35964187438</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>868.49802283979704</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>640.32278274827104</c:v>
@@ -1217,16 +1226,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>311.42915626859798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>907.11051181467997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>979.79711430807004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$G$21:$G$29</c:f>
+              <c:f>average_map_mat!$G$21:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.18</c:v>
                 </c:pt>
@@ -1250,6 +1265,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28160000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,9 +1279,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>average_map_mat!$A$21:$A$29</c15:f>
+                <c15:f>average_map_mat!$A$21:$A$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>K-Means 1</c:v>
                   </c:pt>
@@ -1284,6 +1305,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1325,6 +1352,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> annual precipitation (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1387,6 +1474,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized soil water content model feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1494,64 +1636,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MAT vs Rn</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17667582249893185"/>
+          <c:y val="5.6605101143359725E-2"/>
+          <c:w val="0.77846269216347974"/>
+          <c:h val="0.78718273672255346"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1591,7 +1688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{596E9D28-1CEB-4911-A096-533A3CC08538}" type="CELLRANGE">
+                    <a:fld id="{4DCE99E8-F250-4820-A2D0-29F1225B5CC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1624,7 +1721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6870C997-E385-4605-BB5F-85635655D78A}" type="CELLRANGE">
+                    <a:fld id="{A7CDDD7F-E56C-42A3-A4EF-3B7F9591546A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1657,7 +1754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{440366E4-6D0A-4117-AF2A-6191B965FA91}" type="CELLRANGE">
+                    <a:fld id="{4A103FE3-90A0-48B6-B7CD-DDAFEAFC04AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1685,12 +1782,112 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6795131845841833E-2"/>
+                  <c:y val="-3.2128524216084565E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75%"/>
+                            <a:lumOff val="25%"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{7AC04DA1-3F01-488E-AF18-73CAD93537CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75%"/>
+                              <a:lumOff val="25%"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75%"/>
+                          <a:lumOff val="25%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.2381745486682319"/>
+                      <c:h val="9.6265090682443377E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-CAC5-4D86-B080-490DAB48FE8C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6EEDBFC-FB4D-4EEB-BD39-E9F0D91FA9E3}" type="CELLRANGE">
+                    <a:fld id="{E523860E-3D0E-4F78-BAFA-68A4AA4949C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1712,18 +1909,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-CAC5-4D86-B080-490DAB48FE8C}"/>
+                  <c16:uniqueId val="{00000009-CAC5-4D86-B080-490DAB48FE8C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59FC950E-0B5B-4364-83A2-A68060279BF7}" type="CELLRANGE">
+                    <a:fld id="{D4160651-BD89-4B7F-9C34-8704A95E7421}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1745,18 +1942,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-CAC5-4D86-B080-490DAB48FE8C}"/>
+                  <c16:uniqueId val="{0000000A-CAC5-4D86-B080-490DAB48FE8C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76E933C7-8797-4419-8F32-FE10AAD023F0}" type="CELLRANGE">
+                    <a:fld id="{C1794D10-F63E-4629-BBC8-E21816CCF35C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1778,18 +1975,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-CAC5-4D86-B080-490DAB48FE8C}"/>
+                  <c16:uniqueId val="{0000000B-CAC5-4D86-B080-490DAB48FE8C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B300C7E-B4DD-4308-9E24-8EA7EABB9641}" type="CELLRANGE">
+                    <a:fld id="{8997BC08-1418-4DAE-A6E4-8574B1B9FCC2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1811,18 +2008,24 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-CAC5-4D86-B080-490DAB48FE8C}"/>
+                  <c16:uniqueId val="{0000000C-CAC5-4D86-B080-490DAB48FE8C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8931710615280546E-2"/>
+                  <c:y val="3.2128524216084565E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B02018A3-F465-4331-9BD5-92D9BD7E5468}" type="CELLRANGE">
+                    <a:fld id="{1BE2269F-BB49-40B6-9041-439CC11BDBE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1840,21 +2043,31 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-CAC5-4D86-B080-490DAB48FE8C}"/>
+                  <c16:uniqueId val="{0000000D-CAC5-4D86-B080-490DAB48FE8C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="8"/>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1386071670047329E-2"/>
+                  <c:y val="2.8112458689073846E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{CDF4305E-6839-46C2-B740-04999A584B4A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
@@ -1867,11 +2080,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-CAC5-4D86-B080-490DAB48FE8C}"/>
+                  <c16:uniqueId val="{00000002-9244-4C93-BA26-2F258AE966E4}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1965,18 +2178,18 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$C$21:$C$29</c:f>
+              <c:f>average_map_mat!$C$21:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>10.9193198173837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.958901834605699</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25.5228032056114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.5293573551627</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.958901834605699</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.3213291623820407</c:v>
@@ -1992,16 +2205,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12.667087645095901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6660666574268</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>10.2004392114263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$F$21:$F$29</c:f>
+              <c:f>average_map_mat!$F$21:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.61409999999999998</c:v>
                 </c:pt>
@@ -2025,6 +2244,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.3523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,9 +2258,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>average_map_mat!$A$21:$A$29</c15:f>
+                <c15:f>average_map_mat!$A$21:$A$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>K-Means 1</c:v>
                   </c:pt>
@@ -2059,6 +2284,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2100,6 +2331,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean annual temperature (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2162,6 +2448,85 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> photosynthetic photon flux density model</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> feature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.1007751937984496E-2"/>
+              <c:y val="0.13879791411297865"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2269,62 +2634,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>MAT vs Ta</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2361,12 +2671,50 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13002361645843963"/>
+                  <c:y val="-9.9999947506590452E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{131898AA-55C3-4FB3-83AD-AD61918368AC}" type="CELLRANGE">
+                    <a:fld id="{55108AF9-ECDD-431C-B3CE-1E45C5840757}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0957-499B-A767-1B0749727928}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87559D32-2EF4-4AED-8A48-832A41227046}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2388,18 +2736,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{00000006-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF97609F-14DB-4DA0-9897-A6D6FA41900C}" type="CELLRANGE">
+                    <a:fld id="{E71506DB-B4B0-4995-8C30-D7C29F3E5C11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2421,18 +2769,56 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{00000007-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{546351E5-0608-473A-9A16-3E4E11E0FB55}" type="CELLRANGE">
+                    <a:fld id="{05525E99-D078-4DB1-8412-00B720E51C04}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23429064345588438"/>
+                      <c:h val="8.3233289641317779E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0957-499B-A767-1B0749727928}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6C381D9A-B290-4152-93DD-0D99145952CD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2454,18 +2840,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{00000009-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E27B0D7E-EAC0-4656-BD91-39F37BDCEF4E}" type="CELLRANGE">
+                    <a:fld id="{3A189C76-C435-4511-9452-4620EF27C797}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2487,18 +2873,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{0000000A-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6628E91C-D8B0-4C1C-918B-D287434FED0A}" type="CELLRANGE">
+                    <a:fld id="{30B7171C-D175-4F19-9739-06D875649F1E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2520,18 +2906,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{0000000B-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02419676-5B85-4C51-91BA-5661AF3D204F}" type="CELLRANGE">
+                    <a:fld id="{3AAC6EBE-6426-40B5-BCAE-88F70C5B80E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2553,18 +2939,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{0000000C-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64A2F9C6-A7A7-4968-9DB0-9CA892B8BDBB}" type="CELLRANGE">
+                    <a:fld id="{AE983A49-FF0E-441F-ACB3-66AA342A7704}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2586,18 +2972,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{0000000D-0957-499B-A767-1B0749727928}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="9"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67325F6B-86ED-46C5-A13C-ABABCBCC6864}" type="CELLRANGE">
+                    <a:fld id="{5D6BFD68-1269-495D-AE95-60EE17104225}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2619,34 +3005,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-0957-499B-A767-1B0749727928}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-0957-499B-A767-1B0749727928}"/>
+                  <c16:uniqueId val="{00000002-763F-49A2-9CF6-5A57A255E199}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2717,10 +3076,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.239312040857182E-3"/>
+                  <c:y val="-0.10571970744346459"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2753,18 +3118,18 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$C$21:$C$29</c:f>
+              <c:f>average_map_mat!$C$21:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>10.9193198173837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.958901834605699</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>25.5228032056114</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.5293573551627</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.958901834605699</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.3213291623820407</c:v>
@@ -2780,16 +3145,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12.667087645095901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6660666574268</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>10.2004392114263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$D$21:$D$29</c:f>
+              <c:f>average_map_mat!$D$21:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.11550000000000001</c:v>
                 </c:pt>
@@ -2813,6 +3184,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.0699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,9 +3198,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>average_map_mat!$A$21:$A$29</c15:f>
+                <c15:f>average_map_mat!$A$21:$A$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="9"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>K-Means 1</c:v>
                   </c:pt>
@@ -2847,6 +3224,12 @@
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -2888,6 +3271,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean annual temperature (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2950,6 +3395,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized air temperature</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>model feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3057,62 +3565,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average SWC vs feature importance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3149,12 +3602,50 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3931897947930669E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1BC0160-18BD-4AF4-BAAF-D2CD7571FE99}" type="CELLRANGE">
+                    <a:fld id="{434DB8F5-4CB7-4279-937D-27F7FD6BEAC9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E7A9F78A-7BB6-4280-BBDC-75FF29FB0EDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3176,18 +3667,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-F1CC-465E-8708-9485F2424E9C}"/>
+                  <c16:uniqueId val="{00000004-F1CC-465E-8708-9485F2424E9C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B371DBA8-154A-4B8C-A954-21C44636D502}" type="CELLRANGE">
+                    <a:fld id="{4ED0C149-C8B3-4A13-A192-871BB5C470E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3209,18 +3700,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-F1CC-465E-8708-9485F2424E9C}"/>
+                  <c16:uniqueId val="{00000005-F1CC-465E-8708-9485F2424E9C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="2"/>
+              <c:idx val="3"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13DC18DB-D50E-4CE0-92CB-92F7F408507B}" type="CELLRANGE">
+                    <a:fld id="{DC11A672-F571-46FF-85D0-37C4E5FFC687}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3242,18 +3733,56 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-F1CC-465E-8708-9485F2424E9C}"/>
+                  <c16:uniqueId val="{00000006-F1CC-465E-8708-9485F2424E9C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.317956938437928E-2"/>
+                  <c:y val="-4.3835616438356234E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFA2BE59-B642-459D-9458-8BCF9C0430CE}" type="CELLRANGE">
+                    <a:fld id="{0CD76B9D-345F-4467-8F1B-0366A9891948}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-F1CC-465E-8708-9485F2424E9C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A2768D1B-1A15-482E-9EB5-70B0121B3396}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3275,18 +3804,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-F1CC-465E-8708-9485F2424E9C}"/>
+                  <c16:uniqueId val="{00000002-C7B5-4CD6-B8EE-F930738BAA38}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF8DA315-05C6-4828-88AD-FE4A780D137E}" type="CELLRANGE">
+                    <a:fld id="{F03A1699-4029-412F-9FD2-A3AAA82CC883}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3308,7 +3837,106 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-F1CC-465E-8708-9485F2424E9C}"/>
+                  <c16:uniqueId val="{00000003-C7B5-4CD6-B8EE-F930738BAA38}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5716D8A5-9C83-4FDB-9507-EDA7FB153A2A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-C7B5-4CD6-B8EE-F930738BAA38}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF16769B-ABB2-4C95-8410-ECF532AE1B1D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C7B5-4CD6-B8EE-F930738BAA38}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F4CD074-9338-40E5-91D2-0EECD9FAB2A6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C7B5-4CD6-B8EE-F930738BAA38}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3379,10 +4007,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11868133046542213"/>
+                  <c:y val="-2.3105741919246397E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3415,48 +4049,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$R$24:$R$28</c:f>
+              <c:f>average_map_mat!$R$21:$R$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.17</c:v>
+                  <c:v>0.249210856671048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.32893216866785302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.20917951880888999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.166036146302948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.249210856671048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16049177512653101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29980468441327401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6371479778875905E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23488847493172599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.159118294808859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$G$24:$G$28</c:f>
+              <c:f>average_map_mat!$G$21:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3992</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>0.2064</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.1153</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28160000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3465,23 +4129,38 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>average_map_mat!$A$24:$A$28</c15:f>
+                <c15:f>average_map_mat!$A$21:$A$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Woodland/Shrubland</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>Tropical rain forest</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>Tropical forest savanna</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="6">
                     <c:v>Boreal forest</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="7">
                     <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -3523,7 +4202,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean shallow soil water content</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3585,6 +4319,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized soil water content model feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3692,67 +4481,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Ta vs feature</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
-              <a:t> importance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3791,7 +4520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{475DBA5A-6584-483E-BD8A-1E711759118D}" type="CELLRANGE">
+                    <a:fld id="{B06F1491-EECA-4C17-8AC3-869608E7E768}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3824,7 +4553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60B7F328-62B8-47AA-9C45-0BD118A85A2F}" type="CELLRANGE">
+                    <a:fld id="{BFCFCC0F-9662-460A-AAF3-941655518622}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3857,7 +4586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD050A1C-42BA-438C-B1F3-E7241371052E}" type="CELLRANGE">
+                    <a:fld id="{010D3AF3-1F8E-41E9-9081-DA5B805CA10C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3890,7 +4619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE24830E-04B9-485A-AE82-6E4355A6CAFA}" type="CELLRANGE">
+                    <a:fld id="{3C4F30A2-D47D-46BB-A95D-36AE379C49EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3918,12 +4647,50 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8018018018018018E-2"/>
+                  <c:y val="4.4979919678714862E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C49874C-E452-4277-A723-999E0EF75EB8}" type="CELLRANGE">
+                    <a:fld id="{E068275B-FC36-4AB0-A534-0F6027637738}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5B06-4C93-86EC-E242252326DF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5DAC19CC-2603-4EC5-9985-FE121429EFBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3945,7 +4712,139 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-5B06-4C93-86EC-E242252326DF}"/>
+                  <c16:uniqueId val="{00000002-FC75-478C-A87F-7A3D8C4EF7CC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B681C9B3-2DCD-4FD7-83F1-11E8B207C851}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FC75-478C-A87F-7A3D8C4EF7CC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B50D768B-FABB-42A6-AAC9-9D0D7E14EFFE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FC75-478C-A87F-7A3D8C4EF7CC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D05092F9-1E01-490E-B528-5C400100E4B2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FC75-478C-A87F-7A3D8C4EF7CC}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{139C1DF2-F2D9-4605-BF48-0E8510B12A02}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-FC75-478C-A87F-7A3D8C4EF7CC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4020,6 +4919,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6351784855721866E-2"/>
+                  <c:y val="-7.9992916548082091E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4052,48 +4957,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$O$24:$O$28</c:f>
+              <c:f>average_map_mat!$O$21:$O$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.7</c:v>
+                  <c:v>25.679286796789299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.7</c:v>
+                  <c:v>15.8431097294946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.5</c:v>
+                  <c:v>11.3194127268707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6</c:v>
+                  <c:v>13.706401510558299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>25.679286796789299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.540174091042399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5512610098195196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.3672629162707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.172008751596401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.682883167459799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$D$24:$D$28</c:f>
+              <c:f>average_map_mat!$D$21:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>0.11550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.253</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>0.11550000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>0.28470000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>0.50190000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>8.0699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,23 +5037,38 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>average_map_mat!$N$24:$N$28</c15:f>
+                <c15:f>average_map_mat!$N$21:$N$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Woodland/Shrubland</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>Tropical rain forest</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>Tropical forest savanna</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="6">
                     <c:v>Boreal forest</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="7">
                     <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4160,7 +5110,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean air temperature (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4222,6 +5227,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized air</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> temperature model </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4329,37 +5397,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4401,7 +5439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5E6F773-0619-43DE-A9BB-AE361ACE22E8}" type="CELLRANGE">
+                    <a:fld id="{D3DC36DB-0803-49C9-8E4F-B97FD304269C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4434,7 +5472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B7EED68-F0BD-4F11-9785-9D2DD4548FD6}" type="CELLRANGE">
+                    <a:fld id="{29D7A098-4C26-4037-8ED7-24D969A5779B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4467,7 +5505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{339F1E5C-5A68-4B26-8F42-10FE73B64361}" type="CELLRANGE">
+                    <a:fld id="{BFFD6AB7-930A-40F1-8751-52370FAC24C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4495,12 +5533,88 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.242147922998987E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{900FF5AB-7A66-40EF-9236-EC1FCD68751C}" type="CELLRANGE">
+                    <a:fld id="{53FEF77E-B7DB-4D11-A779-7A8BBF5C12B8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.8368794326241134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{136A147D-89E4-4CC8-8AB8-C46C340B27B7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2114-4179-A14D-734C445F9B17}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{46D53CEF-3C0E-4807-93F5-BE9727EF03DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4522,18 +5636,56 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-2114-4179-A14D-734C445F9B17}"/>
+                  <c16:uniqueId val="{00000002-5CA1-4925-BAC3-04F99E714857}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9669421487603343E-2"/>
+                  <c:y val="3.2432432432432302E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21E6C001-0109-4DC9-943B-0DC2B7CE56BE}" type="CELLRANGE">
+                    <a:fld id="{BA062602-B9D0-4739-9BFD-09AF1B5C77E0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5CA1-4925-BAC3-04F99E714857}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4A720C9C-37D6-4476-931E-DABF2C97D25A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4555,7 +5707,73 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-2114-4179-A14D-734C445F9B17}"/>
+                  <c16:uniqueId val="{00000004-5CA1-4925-BAC3-04F99E714857}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F4F0E3D8-AFDE-4D89-953E-A36F3CFDD803}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5CA1-4925-BAC3-04F99E714857}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{218DCA40-027A-4074-A01C-51BEE1F065A4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5CA1-4925-BAC3-04F99E714857}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4616,94 +5834,80 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65%"/>
-                          <a:lumOff val="35%"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$P$24:$P$28</c:f>
+              <c:f>average_map_mat!$P$21:$P$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.52797179872035604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>0.479668849230381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3</c:v>
+                  <c:v>0.45569312194720002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.60107584096614697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.41</c:v>
+                  <c:v>0.52797179872035604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30433016133025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30618888768021002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4066629818668199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62402078269795203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58909021952529095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$E$24:$E$28</c:f>
+              <c:f>average_map_mat!$E$21:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.12620000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>9.0399999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>0.27229999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>8.3699999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>0.1739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,23 +5916,38 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>average_map_mat!$N$24:$N$28</c15:f>
+                <c15:f>average_map_mat!$N$21:$N$30</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="5"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Woodland/Shrubland</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="4">
                     <c:v>Tropical rain forest</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="5">
                     <c:v>Tropical forest savanna</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="6">
                     <c:v>Boreal forest</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="7">
                     <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4770,7 +5989,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t>Mean v</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>apor pressure deficit (kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4832,6 +6110,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> vapor pressure deficit model </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4939,39 +6280,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11367066837631147"/>
+          <c:y val="7.0418353576248316E-2"/>
+          <c:w val="0.83959683265909923"/>
+          <c:h val="0.83997768497561298"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5003,90 +6324,454 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F5F221E6-5CCF-4509-8EC3-8F21F03CCD27}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E78F1D50-8714-47E2-8330-A86CAEDAAD69}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{02654699-A7B4-430F-87FC-2A16A2F31A0B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6497166763473054E-3"/>
+                  <c:y val="-1.6194331983805668E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9F673C9C-3201-4303-9B4D-C8A6C4BEB1F0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="3.2388663967611288E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{702B3A21-807C-4746-A596-4A0810C47772}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-2.4291497975708502E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{40803B88-9428-459B-9091-74080342F01B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E35CFE1-3712-45B9-BEDE-9BDF469ED5A4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5647EA30-6089-4F8F-9AD1-18411CB1C782}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{66EB7D4A-2E81-4543-9C68-DFDB1E0C5BAA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E30F2DD3-2CEC-4F06-8C71-EA3855EA0D1E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-57D1-40E1-837E-6CDE47456A00}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
-                          <a:lumMod val="65%"/>
-                          <a:lumOff val="35%"/>
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>average_map_mat!$Q$21:$Q$28</c:f>
+              <c:f>average_map_mat!$Q$21:$Q$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>359.5</c:v>
+                  <c:v>359.54010333443301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>264.5</c:v>
+                  <c:v>264.54299726826798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>378.3</c:v>
+                  <c:v>378.26232563087302</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>375.8</c:v>
+                  <c:v>375.82126487020599</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>359.5</c:v>
+                  <c:v>359.54010333443301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>539</c:v>
+                  <c:v>538.97126165309203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>369.1</c:v>
+                  <c:v>369.089509498273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>451.2</c:v>
+                  <c:v>451.16459825761501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>399.98813058735902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>356.99695206818399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>average_map_mat!$F$21:$F$28</c:f>
+              <c:f>average_map_mat!$F$21:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.61409999999999998</c:v>
                 </c:pt>
@@ -5110,12 +6795,56 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.3523</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>average_map_mat!$N$21:$N$30</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Woodland/Shrubland</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tropical rain forest</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Tropical forest savanna</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Boreal forest</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4607-43E0-874B-DAC1A256C6FD}"/>
             </c:ext>
@@ -5136,6 +6865,7 @@
         <c:axId val="825194863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5153,7 +6883,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t>Mean photosynthetic photon flux density (µmol / (s*m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30%"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t>))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5215,6 +7009,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> photosynthetic photon flux density model </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5253,6 +7110,1865 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="825194863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Random Forest</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13002361645843963"/>
+                  <c:y val="-9.9999947506590452E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B2A3CFA-F2EB-4E1E-A7FC-1CAB2243CC46}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CCAFD295-85C5-44C3-B04B-7F20C24A2541}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A5EE1AA1-F430-48CB-89AD-357CFDA20376}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FDD6B96E-9771-46C7-9EB4-0B2DC4856F99}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.23429064345588438"/>
+                      <c:h val="8.3233289641317779E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3A81A9AD-A845-456F-B33B-CB5FC507A773}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F4F00C3-B6A5-4E33-BE6B-E655B58C1C71}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B77DFE1D-A3D9-43A9-AD93-A8791EBCF2BA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{711B2058-481D-4169-AC7E-C301E09756F3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{42AB327A-A8A3-483D-A377-5A917A6E2FF6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0CD68D1B-D175-49CF-8071-9949737C2D96}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0359-43E4-A50B-3D53FA7D2165}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37763458298698965"/>
+                  <c:y val="-0.11190429300583038"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average_map_mat!$C$21:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.9193198173837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.958901834605699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.5228032056114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3213291623820407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.5228032056114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.241310546873802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5190655547093399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.667087645095901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6660666574268</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>10.2004392114263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average_map_mat!$E$21:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4859</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>average_map_mat!$A$21:$A$30</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Woodland/Shrubland</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tropical rain forest</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Tropical forest savanna</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Boreal forest</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0359-43E4-A50B-3D53FA7D2165}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="424775135"/>
+        <c:axId val="424773471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="424775135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean annual temperature (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>°C)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424773471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="424773471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized vapor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> pressure deficit </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>model feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424775135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average VPD vs feature importance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E1E222DB-0841-4D7C-8029-A650B1B30B75}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9442D63B-B95E-4C9E-A1F0-0B89087B3827}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B2314E27-D9CF-406A-B71C-198A9048EC77}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.242147922998987E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CFC65982-9115-4BED-8186-DD4A803DF852}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.8368794326241134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0B88259E-8D0F-4BEF-828D-3C6D13BF9812}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B7CF589-F9F7-441E-AE45-AE749C8E6994}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9669421487603343E-2"/>
+                  <c:y val="3.2432432432432302E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D0032802-1476-45CF-8CC5-5EF07B4E0233}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{89916B45-946D-4625-B7C4-21CF2E3DD133}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D3390472-B6C8-4F09-B4A1-F722CAB88C86}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E208CEEC-243F-4FA1-BB21-E413E7BC0F91}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E24F-450E-9B03-161862298643}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75%"/>
+                        <a:lumOff val="25%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35%"/>
+                          <a:lumOff val="65%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65%"/>
+                          <a:lumOff val="35%"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>average_map_mat!$P$21:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52797179872035604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.479668849230381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45569312194720002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60107584096614697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52797179872035604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30433016133025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30618888768021002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4066629818668199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62402078269795203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58909021952529095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>average_map_mat!$G$21:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28160000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>average_map_mat!$N$21:$N$30</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>K-Means 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>K-Means 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>K-Means 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Woodland/Shrubland</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Tropical rain forest</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Tropical forest savanna</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Boreal forest</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Temperate grassland desert</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Deciduous</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Mixed</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E24F-450E-9B03-161862298643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="818334015"/>
+        <c:axId val="818334847"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="818334015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t>Mean v</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>apor pressure deficit (kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818334847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="818334847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> soil water content </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>feature importance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25%"/>
+                <a:lumOff val="75%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818334015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5588,6 +9304,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
   <cs:axisTitle>
@@ -9200,20 +12996,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75%"/>
+          <a:lumOff val="25%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50%"/>
+            <a:lumOff val="50%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9241,15 +14069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9276,16 +14104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123823</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9312,16 +14140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9348,16 +14176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9384,16 +14212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9420,16 +14248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9449,6 +14277,82 @@
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
           <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171453</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB7CECD-4B3E-4F65-A2B7-E37C9CE71A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D6508AD-C1F9-4485-B539-1F9C285A2450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9756,9 +14660,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9859,10 +14761,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="5">
-        <v>792.29203499378696</v>
+        <v>1002.35964187438</v>
       </c>
       <c r="C3" s="4">
-        <v>10.9193198173837</v>
+        <v>10.5293573551627</v>
       </c>
       <c r="D3" s="3">
         <v>0.2102</v>
@@ -9897,20 +14799,20 @@
       <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="2">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>393.3</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S3" s="2">
-        <v>470.6</v>
+      <c r="O3" s="3">
+        <v>14.026697196711201</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.80833812367924596</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>393.26234847946</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.140528382182005</v>
+      </c>
+      <c r="S3" s="3">
+        <v>470.634716347081</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9918,10 +14820,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="5">
-        <v>2980.9457157042898</v>
+        <v>792.29203499378696</v>
       </c>
       <c r="C4" s="4">
-        <v>25.5228032056114</v>
+        <v>10.9193198173837</v>
       </c>
       <c r="D4" s="3">
         <v>0.11550000000000001</v>
@@ -9956,20 +14858,20 @@
       <c r="N4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>359.5</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S4" s="2">
-        <v>4262.7</v>
+      <c r="O4" s="3">
+        <v>25.679286796789299</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.52797179872035604</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>359.54010333443301</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.249210856671048</v>
+      </c>
+      <c r="S4" s="3">
+        <v>4262.67067891448</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -9977,10 +14879,10 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <v>1002.35964187438</v>
+        <v>868.49802283979704</v>
       </c>
       <c r="C5" s="4">
-        <v>10.5293573551627</v>
+        <v>13.958901834605699</v>
       </c>
       <c r="D5" s="3">
         <v>0.12989999999999999</v>
@@ -10015,20 +14917,20 @@
       <c r="N5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="2">
-        <v>15.8</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>264.5</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="S5" s="2">
-        <v>2847.3</v>
+      <c r="O5" s="3">
+        <v>15.8431097294946</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.479668849230381</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>264.54299726826798</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.32893216866785302</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2847.3308634431201</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -10036,10 +14938,10 @@
         <v>22</v>
       </c>
       <c r="B6" s="5">
-        <v>868.49802283979704</v>
+        <v>2980.9457157042898</v>
       </c>
       <c r="C6" s="4">
-        <v>13.958901834605699</v>
+        <v>25.5228032056114</v>
       </c>
       <c r="D6" s="3">
         <v>1.2E-2</v>
@@ -10074,20 +14976,20 @@
       <c r="N6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>378.3</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="S6" s="2">
-        <v>6886.2</v>
+      <c r="O6" s="3">
+        <v>11.3194127268707</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.45569312194720002</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>378.26232563087302</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.20917951880888999</v>
+      </c>
+      <c r="S6" s="3">
+        <v>6886.2211250727796</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -10133,20 +15035,20 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>375.8</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="S7" s="2">
-        <v>504.1</v>
+      <c r="O7" s="3">
+        <v>13.706401510558299</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.60107584096614697</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>375.82126487020599</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.166036146302948</v>
+      </c>
+      <c r="S7" s="3">
+        <v>504.08816812222801</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -10192,20 +15094,20 @@
       <c r="N8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="2">
-        <v>13</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>324.10000000000002</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1714.5</v>
+      <c r="O8" s="3">
+        <v>13.037381870882999</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.50200626727762299</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>324.05421665032799</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.220966401606178</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1714.4770613656799</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -10251,20 +15153,20 @@
       <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>359.5</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="2">
-        <v>4262.7</v>
+      <c r="O9" s="3">
+        <v>25.679286796789299</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.52797179872035604</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>359.54010333443301</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.249210856671048</v>
+      </c>
+      <c r="S9" s="3">
+        <v>4262.67067891448</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -10310,20 +15212,20 @@
       <c r="N10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="2">
-        <v>24.5</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>539</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="S10" s="2">
-        <v>398.5</v>
+      <c r="O10" s="3">
+        <v>24.540174091042399</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1.30433016133025</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>538.97126165309203</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.16049177512653101</v>
+      </c>
+      <c r="S10" s="3">
+        <v>398.47270869335699</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -10369,20 +15271,20 @@
       <c r="N11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="2">
-        <v>18.7</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>439.8</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="S11" s="2">
-        <v>917.3</v>
+      <c r="O11" s="3">
+        <v>18.6862853992629</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1.38224646230742</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>439.78727683885597</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.11053315215045301</v>
+      </c>
+      <c r="S11" s="3">
+        <v>917.32257692079099</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -10428,20 +15330,20 @@
       <c r="N12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>369.1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="S12" s="2">
-        <v>789.2</v>
+      <c r="O12" s="3">
+        <v>7.5512610098195196</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.30618888768021002</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>369.089509498273</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.29980468441327401</v>
+      </c>
+      <c r="S12" s="3">
+        <v>789.21848486162799</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -10487,20 +15389,20 @@
       <c r="N13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>451.2</v>
-      </c>
-      <c r="R13" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S13" s="2">
-        <v>229.7</v>
+      <c r="O13" s="3">
+        <v>16.3672629162707</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.4066629818668199</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>451.16459825761501</v>
+      </c>
+      <c r="R13" s="3">
+        <v>6.6371479778875905E-2</v>
+      </c>
+      <c r="S13" s="3">
+        <v>229.66737168810801</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -10508,58 +15410,58 @@
         <v>11</v>
       </c>
       <c r="B14" s="5">
-        <v>940.50969677624005</v>
+        <v>907.11051181467997</v>
       </c>
       <c r="C14" s="4">
-        <v>11.5130248708242</v>
+        <v>11.6660666574268</v>
       </c>
       <c r="D14" s="3">
-        <v>0.38400000000000001</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="E14" s="3">
-        <v>0.13139999999999999</v>
+        <v>0.34260000000000002</v>
       </c>
       <c r="F14" s="3">
-        <v>0.2271</v>
+        <v>0.2109</v>
       </c>
       <c r="G14" s="3">
-        <v>0.25750000000000001</v>
+        <v>0.26829999999999998</v>
       </c>
       <c r="H14" s="3">
-        <v>0.74681712600000005</v>
+        <v>0.76201825251824296</v>
       </c>
       <c r="I14" s="3">
-        <v>0.33299288585382603</v>
+        <v>0.32379590000000003</v>
       </c>
       <c r="J14" s="3">
-        <v>0.16467141896067899</v>
+        <v>0.18827812799999999</v>
       </c>
       <c r="K14" s="3">
-        <v>0.25624129023296499</v>
+        <v>0.25969677499999999</v>
       </c>
       <c r="L14" s="3">
-        <v>0.24609440495252799</v>
+        <v>0.22822919799999999</v>
       </c>
       <c r="M14" s="3">
-        <v>0.70764696680360795</v>
+        <v>0.72664633599999995</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>399.9</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1690.9</v>
+      <c r="O14" s="3">
+        <v>16.172008751596401</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.62402078269795203</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>399.98813058735902</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.23488847493172599</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1831.31521878731</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -10567,67 +15469,126 @@
         <v>10</v>
       </c>
       <c r="B15" s="5">
-        <v>895.86338809743995</v>
+        <v>897.24601295644095</v>
       </c>
       <c r="C15" s="4">
-        <v>11.7379884968064</v>
+        <v>12.3216855694586</v>
       </c>
       <c r="D15" s="3">
-        <v>0.2157</v>
+        <v>0.2152</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1915</v>
+        <v>0.18609999999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>0.25919999999999999</v>
+        <v>0.25140000000000001</v>
       </c>
       <c r="G15" s="3">
-        <v>0.33350000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="H15" s="3">
-        <v>0.48812492800000001</v>
+        <v>0.49925332039391301</v>
       </c>
       <c r="I15" s="3">
-        <v>0.22097532044496301</v>
+        <v>0.21973735899999999</v>
       </c>
       <c r="J15" s="3">
-        <v>0.235467190781671</v>
+        <v>0.220196278</v>
       </c>
       <c r="K15" s="3">
-        <v>0.18763491637068799</v>
+        <v>0.20728751400000001</v>
       </c>
       <c r="L15" s="3">
-        <v>0.355922572402676</v>
+        <v>0.35277884799999998</v>
       </c>
       <c r="M15" s="3">
-        <v>0.36197870523089198</v>
+        <v>0.37912660199999998</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="2">
-        <v>14</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>369.5</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="S15" s="2">
-        <v>856.9</v>
+      <c r="O15" s="3">
+        <v>13.947902126940599</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.80810091987197497</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>376.21961893161199</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.16125788762926199</v>
+      </c>
+      <c r="S15" s="3">
+        <v>842.41710698567897</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5">
+        <v>979.79711430807004</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10.2004392114263</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1268</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1966</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.74417795054442604</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.39372921300000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.215791068</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.20746083500000001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.18301888499999999</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.74184936199999996</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="3">
+        <v>15.682883167459799</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.58909021952529095</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>356.99695206818399</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.159118294808859</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1273.03170285429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -10712,10 +15673,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>2980.9457157042898</v>
+        <v>792.29203499378696</v>
       </c>
       <c r="C21" s="4">
-        <v>25.5228032056114</v>
+        <v>10.9193198173837</v>
       </c>
       <c r="D21" s="3">
         <v>0.11550000000000001</v>
@@ -10750,20 +15711,20 @@
       <c r="N21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>359.5</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S21" s="2">
-        <v>4262.7</v>
+      <c r="O21" s="3">
+        <v>25.679286796789299</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.52797179872035604</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>359.54010333443301</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.249210856671048</v>
+      </c>
+      <c r="S21" s="3">
+        <v>4262.67067891448</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -10771,10 +15732,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>1002.35964187438</v>
+        <v>868.49802283979704</v>
       </c>
       <c r="C22" s="4">
-        <v>10.5293573551627</v>
+        <v>13.958901834605699</v>
       </c>
       <c r="D22" s="3">
         <v>0.12989999999999999</v>
@@ -10809,20 +15770,20 @@
       <c r="N22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="2">
-        <v>15.8</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>264.5</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="S22" s="2">
-        <v>2847.3</v>
+      <c r="O22" s="3">
+        <v>15.8431097294946</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.479668849230381</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>264.54299726826798</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.32893216866785302</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2847.3308634431201</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -10830,10 +15791,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>868.49802283979704</v>
+        <v>2980.9457157042898</v>
       </c>
       <c r="C23" s="4">
-        <v>13.958901834605699</v>
+        <v>25.5228032056114</v>
       </c>
       <c r="D23" s="3">
         <v>1.2E-2</v>
@@ -10868,20 +15829,20 @@
       <c r="N23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>378.3</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="S23" s="2">
-        <v>6886.2</v>
+      <c r="O23" s="3">
+        <v>11.3194127268707</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.45569312194720002</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>378.26232563087302</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.20917951880888999</v>
+      </c>
+      <c r="S23" s="3">
+        <v>6886.2211250727796</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -10927,20 +15888,20 @@
       <c r="N24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="2">
-        <v>13.7</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>375.8</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="S24" s="2">
-        <v>504.1</v>
+      <c r="O24" s="3">
+        <v>13.706401510558299</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.60107584096614697</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>375.82126487020599</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.166036146302948</v>
+      </c>
+      <c r="S24" s="3">
+        <v>504.08816812222801</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -10986,20 +15947,20 @@
       <c r="N25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>359.5</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S25" s="2">
-        <v>4262.7</v>
+      <c r="O25" s="3">
+        <v>25.679286796789299</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.52797179872035604</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>359.54010333443301</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.249210856671048</v>
+      </c>
+      <c r="S25" s="3">
+        <v>4262.67067891448</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -11045,20 +16006,20 @@
       <c r="N26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O26" s="2">
-        <v>24.5</v>
-      </c>
-      <c r="P26" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>539</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="S26" s="2">
-        <v>398.5</v>
+      <c r="O26" s="3">
+        <v>24.540174091042399</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1.30433016133025</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>538.97126165309203</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.16049177512653101</v>
+      </c>
+      <c r="S26" s="3">
+        <v>398.47270869335699</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -11104,20 +16065,20 @@
       <c r="N27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>369.1</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="S27" s="2">
-        <v>789.2</v>
+      <c r="O27" s="3">
+        <v>7.5512610098195196</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.30618888768021002</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>369.089509498273</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.29980468441327401</v>
+      </c>
+      <c r="S27" s="3">
+        <v>789.21848486162799</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -11163,48 +16124,139 @@
       <c r="N28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>451.2</v>
-      </c>
-      <c r="R28" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S28" s="2">
-        <v>229.7</v>
+      <c r="O28" s="3">
+        <v>16.3672629162707</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.4066629818668199</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>451.16459825761501</v>
+      </c>
+      <c r="R28" s="3">
+        <v>6.6371479778875905E-2</v>
+      </c>
+      <c r="S28" s="3">
+        <v>229.66737168810801</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="5">
+        <v>907.11051181467997</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11.6660666574268</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.2109</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.76201825251824296</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.32379590000000003</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.18827812799999999</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.25969677499999999</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.22822919799999999</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.72664633599999995</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="3">
+        <v>16.172008751596401</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.62402078269795203</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>399.98813058735902</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.23488847493172599</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1831.31521878731</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5">
+        <v>979.79711430807004</v>
+      </c>
+      <c r="C30" s="5">
+        <v>10.2004392114263</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.1268</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.1966</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.74417795054442604</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.39372921300000002</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.215791068</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.20746083500000001</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.18301888499999999</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.74184936199999996</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="3">
+        <v>15.682883167459799</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.58909021952529095</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>356.99695206818399</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.159118294808859</v>
+      </c>
+      <c r="S30" s="3">
+        <v>1273.03170285429</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
